--- a/tests/test1.xlsx
+++ b/tests/test1.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpha/Desktop/Code/rbc/tests/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" tabRatio="500"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2017" sheetId="1" r:id="rId1"/>
+    <sheet name="2017" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="rbc-parser-2017" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>TRANSACTION POSTING</t>
   </si>
@@ -38,82 +26,190 @@
     <t>DATE DATE</t>
   </si>
   <si>
+    <t>AUG 21 AUG 22 MCDONALD'S #8975 TORONTO ON</t>
+  </si>
+  <si>
     <t>NEW BALANCE $25.86</t>
   </si>
   <si>
+    <t>JULY 1 JULY 4 WALMART #654 TORONTO ON</t>
+  </si>
+  <si>
+    <t>JAN 30 JAN 31 PAYMENT - THANK YOU / PAIEMENT - MERCI</t>
+  </si>
+  <si>
+    <t>MARCH 21 MARCH 22 BBQ TORONTO ON</t>
+  </si>
+  <si>
     <t>AUG 31 SEP 01 PAYMENT - THANK YOU / PAIEMENT - MERCI</t>
   </si>
   <si>
+    <t>JAN 1 JAN 10 BEST BUY #1 TORONTO ON</t>
+  </si>
+  <si>
+    <t>DEC 01 DEC 01 ANNUAL FEE $45.00</t>
+  </si>
+  <si>
+    <t>DEC 01 DEC 01 ANNUAL FEE REBATE -$45.00</t>
+  </si>
+  <si>
+    <t>OCT 02 OCT 06 WALMART #2 TORONTO ON</t>
+  </si>
+  <si>
+    <t>FEB 1 1 FEB 12 BURGER KING #11 WATERLOO ON</t>
+  </si>
+  <si>
+    <t>OCT 30 NOV 3 RIPLEYS TORONTO ON</t>
+  </si>
+  <si>
     <t>SEP 12 SEP 13 PAYMENT - THANK YOU / PAIEMENT - MERCI</t>
   </si>
   <si>
+    <t>AUG 24 AUG 26 RETAIL TORONTO ON</t>
+  </si>
+  <si>
+    <t>MAY 24 MAY 26 JUST EAT TORONTO ON</t>
+  </si>
+  <si>
+    <t>JUNE 17 JUNE 21 CN TOWER TORONTO ON</t>
+  </si>
+  <si>
+    <t>OCT 21 OCT 22 RETAIL TORONTO ON</t>
+  </si>
+  <si>
+    <t>DEC 04 DEC 06 PAYMENT - THANK YOU / PAIEMENT - MERCI</t>
+  </si>
+  <si>
     <t>NEW BALANCE $12312</t>
   </si>
   <si>
-    <t>JULY 1 JULY 4 WALMART #654 TORONTO ON</t>
-  </si>
-  <si>
-    <t>JAN 30 JAN 31 PAYMENT - THANK YOU / PAIEMENT - MERCI</t>
-  </si>
-  <si>
-    <t>MARCH 21 MARCH 22 BBQ TORONTO ON</t>
-  </si>
-  <si>
-    <t>JAN 1 JAN 10 BEST BUY #1 TORONTO ON</t>
-  </si>
-  <si>
-    <t>DEC 01 DEC 01 ANNUAL FEE REBATE -$45.00</t>
-  </si>
-  <si>
-    <t>DEC 01 DEC 01 ANNUAL FEE $45.00</t>
-  </si>
-  <si>
-    <t>OCT 02 OCT 06 WALMART #2 TORONTO ON</t>
-  </si>
-  <si>
-    <t>FEB 1 1 FEB 12 BURGER KING #11 WATERLOO ON</t>
-  </si>
-  <si>
-    <t>OCT 30 NOV 3 RIPLEYS TORONTO ON</t>
-  </si>
-  <si>
-    <t>AUG 24 AUG 26 RETAIL TORONTO ON</t>
-  </si>
-  <si>
-    <t>MAY 24 MAY 26 JUST EAT TORONTO ON</t>
-  </si>
-  <si>
-    <t>JUNE 17 JUNE 21 CN TOWER TORONTO ON</t>
-  </si>
-  <si>
-    <t>OCT 21 OCT 22 RETAIL TORONTO ON</t>
-  </si>
-  <si>
-    <t>DEC 04 DEC 06 PAYMENT - THANK YOU / PAIEMENT - MERCI</t>
-  </si>
-  <si>
-    <t>AUG 21 AUG 22 MCDONALD'S #8975 TORONTO ON</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>AUG 21</t>
+  </si>
+  <si>
+    <t>MCDONALD'S #8975 TORONTO ON</t>
+  </si>
+  <si>
+    <t>NEW BALANCE</t>
+  </si>
+  <si>
+    <t>$25.86</t>
+  </si>
+  <si>
+    <t>JULY 1</t>
+  </si>
+  <si>
+    <t>WALMART #654 TORONTO ON</t>
+  </si>
+  <si>
+    <t>JAN 30</t>
+  </si>
+  <si>
+    <t>PAYMENT - THANK YOU / PAIEMENT - MERCI</t>
+  </si>
+  <si>
+    <t>MARCH 21</t>
+  </si>
+  <si>
+    <t>BBQ TORONTO ON</t>
+  </si>
+  <si>
+    <t>AUG 31</t>
+  </si>
+  <si>
+    <t>JAN 1</t>
+  </si>
+  <si>
+    <t>BEST BUY #1 TORONTO ON</t>
+  </si>
+  <si>
+    <t>DEC 01</t>
+  </si>
+  <si>
+    <t>ANNUAL FEE</t>
+  </si>
+  <si>
+    <t>$45.00</t>
+  </si>
+  <si>
+    <t>ANNUAL FEE REBATE</t>
+  </si>
+  <si>
+    <t>-$45.00</t>
+  </si>
+  <si>
+    <t>OCT 02</t>
+  </si>
+  <si>
+    <t>WALMART #2 TORONTO ON</t>
+  </si>
+  <si>
+    <t>FEB 1</t>
+  </si>
+  <si>
+    <t>12 BURGER KING #11 WATERLOO ON</t>
+  </si>
+  <si>
+    <t>OCT 30</t>
+  </si>
+  <si>
+    <t>RIPLEYS TORONTO ON</t>
+  </si>
+  <si>
+    <t>SEP 12</t>
+  </si>
+  <si>
+    <t>AUG 24</t>
+  </si>
+  <si>
+    <t>RETAIL TORONTO ON</t>
+  </si>
+  <si>
+    <t>MAY 24</t>
+  </si>
+  <si>
+    <t>JUST EAT TORONTO ON</t>
+  </si>
+  <si>
+    <t>JUNE 17</t>
+  </si>
+  <si>
+    <t>CN TOWER TORONTO ON</t>
+  </si>
+  <si>
+    <t>OCT 21</t>
+  </si>
+  <si>
+    <t>DEC 04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" numFmtId="164"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -129,22 +225,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -410,279 +501,509 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="58.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3.1232132132132101E+20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="n">
+        <v>3.12321321321321e+20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="n">
         <v>11231</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="n">
+        <v>3.12321321321321e+20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="n">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="n">
+        <v>3.12321321321321e+20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="n">
+        <v>-836.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>3.1232132132132101E+20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="n">
+        <v>3.12321321321321e+20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="n">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>3.1232132132132101E+20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>-836.97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="n">
+        <v>3.12321321321321e+20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="n">
+        <v>-1274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>3.1232132132132101E+20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>3123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3.1232132132132101E+20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>-1274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="n">
+        <v>7.4500016245608e+22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="n">
+        <v>132844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>7.4500016245607999E+22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>132844</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="n">
+        <v>3.12321321321321e+20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="n">
+        <v>52.33128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>3.1232132132132101E+20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>52.33128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="n">
+        <v>3.12321321321321e+20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="n">
+        <v>8493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>3.1232132132132101E+20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>8493</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" t="n">
+        <v>3.12321321321321e+20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="n">
+        <v>321321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>3.1232132132132101E+20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>321321</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>3.1232132132132101E+20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="35" spans="1:1">
+      <c r="A35" t="n">
+        <v>3.12321321321321e+20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="n">
         <v>-41234</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>3.1232132132132101E+20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="38" spans="1:1">
+      <c r="A38" t="n">
+        <v>3.12321321321321e+20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="n">
         <v>42134</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>3.1232132132132101E+20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="41" spans="1:1">
+      <c r="A41" t="n">
+        <v>3.12321321321321e+20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="n">
         <v>42134</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>3.1232132132132101E+20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="44" spans="1:1">
+      <c r="A44" t="n">
+        <v>3.12321321321321e+20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="n">
         <v>4234</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>3.1232132132132101E+20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="47" spans="1:1">
+      <c r="A47" t="n">
+        <v>3.12321321321321e+20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="n">
         <v>-4234</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>3.1232132132132101E+20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="50" spans="1:1">
+      <c r="A50" t="n">
+        <v>3.12321321321321e+20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="n">
         <v>-434124213</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s"/>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-836.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="n">
+        <v>132844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="n">
+        <v>52.33128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="n">
+        <v>321321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-41234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="n">
+        <v>42134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="n">
+        <v>42134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-4234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-434124213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>